--- a/natmiOut/OldD2/LR-pairs_lrc2p/Il4-Il13ra2.xlsx
+++ b/natmiOut/OldD2/LR-pairs_lrc2p/Il4-Il13ra2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,6 +76,9 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>ECs</t>
+  </si>
+  <si>
     <t>FAPs</t>
   </si>
   <si>
@@ -95,9 +98,6 @@
   </si>
   <si>
     <t>Il13ra2</t>
-  </si>
-  <si>
-    <t>ECs</t>
   </si>
 </sst>
 </file>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T11"/>
+  <dimension ref="A1:T13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,61 +528,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D2" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="E2">
         <v>1</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G2">
-        <v>0.369849601308886</v>
+        <v>0.0860255</v>
       </c>
       <c r="H2">
-        <v>0.369849601308886</v>
+        <v>0.172051</v>
       </c>
       <c r="I2">
-        <v>0.09123256035546949</v>
+        <v>0.01866214241451323</v>
       </c>
       <c r="J2">
-        <v>0.09123256035546949</v>
+        <v>0.01457003365018844</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.557200452494432</v>
+        <v>0.7352585</v>
       </c>
       <c r="N2">
-        <v>0.557200452494432</v>
+        <v>1.470517</v>
       </c>
       <c r="O2">
-        <v>0.1295653858937092</v>
+        <v>0.1431143522522708</v>
       </c>
       <c r="P2">
-        <v>0.1295653858937092</v>
+        <v>0.1001890659257553</v>
       </c>
       <c r="Q2">
-        <v>0.2060803652041965</v>
+        <v>0.06325098009175001</v>
       </c>
       <c r="R2">
-        <v>0.2060803652041965</v>
+        <v>0.253003920367</v>
       </c>
       <c r="S2">
-        <v>0.01182058188852752</v>
+        <v>0.002670820423292689</v>
       </c>
       <c r="T2">
-        <v>0.01182058188852752</v>
+        <v>0.001459758061919203</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,61 +590,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E3">
         <v>1</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G3">
-        <v>0.369849601308886</v>
+        <v>0.0860255</v>
       </c>
       <c r="H3">
-        <v>0.369849601308886</v>
+        <v>0.172051</v>
       </c>
       <c r="I3">
-        <v>0.09123256035546949</v>
+        <v>0.01866214241451323</v>
       </c>
       <c r="J3">
-        <v>0.09123256035546949</v>
+        <v>0.01457003365018844</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>3.74333435972416</v>
+        <v>4.402301</v>
       </c>
       <c r="N3">
-        <v>3.74333435972416</v>
+        <v>13.206903</v>
       </c>
       <c r="O3">
-        <v>0.8704346141062909</v>
+        <v>0.8568856477477294</v>
       </c>
       <c r="P3">
-        <v>0.8704346141062909</v>
+        <v>0.8998109340742446</v>
       </c>
       <c r="Q3">
-        <v>1.384470720509835</v>
+        <v>0.3787101446755001</v>
       </c>
       <c r="R3">
-        <v>1.384470720509835</v>
+        <v>2.272260868053</v>
       </c>
       <c r="S3">
-        <v>0.07941197846694198</v>
+        <v>0.01599132199122054</v>
       </c>
       <c r="T3">
-        <v>0.07941197846694198</v>
+        <v>0.01311027558826923</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,61 +652,61 @@
         <v>21</v>
       </c>
       <c r="B4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D4" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>0.939206553501329</v>
+        <v>0.377627</v>
       </c>
       <c r="H4">
-        <v>0.939206553501329</v>
+        <v>1.132881</v>
       </c>
       <c r="I4">
-        <v>0.2316785479160223</v>
+        <v>0.08192139369797775</v>
       </c>
       <c r="J4">
-        <v>0.2316785479160223</v>
+        <v>0.09593733423031037</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.557200452494432</v>
+        <v>0.7352585</v>
       </c>
       <c r="N4">
-        <v>0.557200452494432</v>
+        <v>1.470517</v>
       </c>
       <c r="O4">
-        <v>0.1295653858937092</v>
+        <v>0.1431143522522708</v>
       </c>
       <c r="P4">
-        <v>0.1295653858937092</v>
+        <v>0.1001890659257553</v>
       </c>
       <c r="Q4">
-        <v>0.5233263165966764</v>
+        <v>0.2776534615795</v>
       </c>
       <c r="R4">
-        <v>0.5233263165966764</v>
+        <v>1.665920769477</v>
       </c>
       <c r="S4">
-        <v>0.03001752046403362</v>
+        <v>0.01172412719468934</v>
       </c>
       <c r="T4">
-        <v>0.03001752046403362</v>
+        <v>0.00961187190394179</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,61 +714,61 @@
         <v>21</v>
       </c>
       <c r="B5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C5" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D5" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>0.939206553501329</v>
+        <v>0.377627</v>
       </c>
       <c r="H5">
-        <v>0.939206553501329</v>
+        <v>1.132881</v>
       </c>
       <c r="I5">
-        <v>0.2316785479160223</v>
+        <v>0.08192139369797775</v>
       </c>
       <c r="J5">
-        <v>0.2316785479160223</v>
+        <v>0.09593733423031037</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>3.74333435972416</v>
+        <v>4.402301</v>
       </c>
       <c r="N5">
-        <v>3.74333435972416</v>
+        <v>13.206903</v>
       </c>
       <c r="O5">
-        <v>0.8704346141062909</v>
+        <v>0.8568856477477294</v>
       </c>
       <c r="P5">
-        <v>0.8704346141062909</v>
+        <v>0.8998109340742446</v>
       </c>
       <c r="Q5">
-        <v>3.515764162599632</v>
+        <v>1.662427719727</v>
       </c>
       <c r="R5">
-        <v>3.515764162599632</v>
+        <v>14.961849477543</v>
       </c>
       <c r="S5">
-        <v>0.2016610274519887</v>
+        <v>0.07019726650328842</v>
       </c>
       <c r="T5">
-        <v>0.2016610274519887</v>
+        <v>0.08632546232636858</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,61 +776,61 @@
         <v>22</v>
       </c>
       <c r="B6" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C6" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D6" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>0.356872633009444</v>
+        <v>1.258563666666667</v>
       </c>
       <c r="H6">
-        <v>0.356872633009444</v>
+        <v>3.775691</v>
       </c>
       <c r="I6">
-        <v>0.08803146985971123</v>
+        <v>0.273029443421605</v>
       </c>
       <c r="J6">
-        <v>0.08803146985971123</v>
+        <v>0.3197420818403476</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>0.557200452494432</v>
+        <v>0.7352585</v>
       </c>
       <c r="N6">
-        <v>0.557200452494432</v>
+        <v>1.470517</v>
       </c>
       <c r="O6">
-        <v>0.1295653858937092</v>
+        <v>0.1431143522522708</v>
       </c>
       <c r="P6">
-        <v>0.1295653858937092</v>
+        <v>0.1001890659257553</v>
       </c>
       <c r="Q6">
-        <v>0.1988495925957416</v>
+        <v>0.9253696337078333</v>
       </c>
       <c r="R6">
-        <v>0.1988495925957416</v>
+        <v>5.552217802247</v>
       </c>
       <c r="S6">
-        <v>0.01140583136316391</v>
+        <v>0.03907443194108101</v>
       </c>
       <c r="T6">
-        <v>0.01140583136316391</v>
+        <v>0.03203466051674084</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,61 +838,61 @@
         <v>22</v>
       </c>
       <c r="B7" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C7" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>0.356872633009444</v>
+        <v>1.258563666666667</v>
       </c>
       <c r="H7">
-        <v>0.356872633009444</v>
+        <v>3.775691</v>
       </c>
       <c r="I7">
-        <v>0.08803146985971123</v>
+        <v>0.273029443421605</v>
       </c>
       <c r="J7">
-        <v>0.08803146985971123</v>
+        <v>0.3197420818403476</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>3.74333435972416</v>
+        <v>4.402301</v>
       </c>
       <c r="N7">
-        <v>3.74333435972416</v>
+        <v>13.206903</v>
       </c>
       <c r="O7">
-        <v>0.8704346141062909</v>
+        <v>0.8568856477477294</v>
       </c>
       <c r="P7">
-        <v>0.8704346141062909</v>
+        <v>0.8998109340742446</v>
       </c>
       <c r="Q7">
-        <v>1.335893589189482</v>
+        <v>5.540576088330334</v>
       </c>
       <c r="R7">
-        <v>1.335893589189482</v>
+        <v>49.865184794973</v>
       </c>
       <c r="S7">
-        <v>0.07662563849654733</v>
+        <v>0.233955011480524</v>
       </c>
       <c r="T7">
-        <v>0.07662563849654733</v>
+        <v>0.2877074213236067</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,61 +900,61 @@
         <v>23</v>
       </c>
       <c r="B8" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C8" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D8" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>0.567942362547207</v>
+        <v>0.3753126666666667</v>
       </c>
       <c r="H8">
-        <v>0.567942362547207</v>
+        <v>1.125938</v>
       </c>
       <c r="I8">
-        <v>0.1400970440042248</v>
+        <v>0.08141932840034714</v>
       </c>
       <c r="J8">
-        <v>0.1400970440042248</v>
+        <v>0.09534937052400667</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>0.557200452494432</v>
+        <v>0.7352585</v>
       </c>
       <c r="N8">
-        <v>0.557200452494432</v>
+        <v>1.470517</v>
       </c>
       <c r="O8">
-        <v>0.1295653858937092</v>
+        <v>0.1431143522522708</v>
       </c>
       <c r="P8">
-        <v>0.1295653858937092</v>
+        <v>0.1001890659257553</v>
       </c>
       <c r="Q8">
-        <v>0.3164577414020605</v>
+        <v>0.2759518283243333</v>
       </c>
       <c r="R8">
-        <v>0.3164577414020605</v>
+        <v>1.655710969946</v>
       </c>
       <c r="S8">
-        <v>0.01815172756897534</v>
+        <v>0.01165227444483059</v>
       </c>
       <c r="T8">
-        <v>0.01815172756897534</v>
+        <v>0.009552964369408978</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,61 +962,61 @@
         <v>23</v>
       </c>
       <c r="B9" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C9" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D9" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>0.567942362547207</v>
+        <v>0.3753126666666667</v>
       </c>
       <c r="H9">
-        <v>0.567942362547207</v>
+        <v>1.125938</v>
       </c>
       <c r="I9">
-        <v>0.1400970440042248</v>
+        <v>0.08141932840034714</v>
       </c>
       <c r="J9">
-        <v>0.1400970440042248</v>
+        <v>0.09534937052400667</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>3.74333435972416</v>
+        <v>4.402301</v>
       </c>
       <c r="N9">
-        <v>3.74333435972416</v>
+        <v>13.206903</v>
       </c>
       <c r="O9">
-        <v>0.8704346141062909</v>
+        <v>0.8568856477477294</v>
       </c>
       <c r="P9">
-        <v>0.8704346141062909</v>
+        <v>0.8998109340742446</v>
       </c>
       <c r="Q9">
-        <v>2.125998160065876</v>
+        <v>1.652239327779334</v>
       </c>
       <c r="R9">
-        <v>2.125998160065876</v>
+        <v>14.870153950014</v>
       </c>
       <c r="S9">
-        <v>0.1219453164352495</v>
+        <v>0.06976705395551656</v>
       </c>
       <c r="T9">
-        <v>0.1219453164352495</v>
+        <v>0.08579640615459769</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,61 +1024,61 @@
         <v>24</v>
       </c>
       <c r="B10" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C10" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D10" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>1.82004994828301</v>
+        <v>0.5777963333333334</v>
       </c>
       <c r="H10">
-        <v>1.82004994828301</v>
+        <v>1.733389</v>
       </c>
       <c r="I10">
-        <v>0.4489603778645722</v>
+        <v>0.1253455947277287</v>
       </c>
       <c r="J10">
-        <v>0.4489603778645722</v>
+        <v>0.1467909867357149</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>0.557200452494432</v>
+        <v>0.7352585</v>
       </c>
       <c r="N10">
-        <v>0.557200452494432</v>
+        <v>1.470517</v>
       </c>
       <c r="O10">
-        <v>0.1295653858937092</v>
+        <v>0.1431143522522708</v>
       </c>
       <c r="P10">
-        <v>0.1295653858937092</v>
+        <v>0.1001890659257553</v>
       </c>
       <c r="Q10">
-        <v>1.014132654745761</v>
+        <v>0.4248296653521667</v>
       </c>
       <c r="R10">
-        <v>1.014132654745761</v>
+        <v>2.548977992113</v>
       </c>
       <c r="S10">
-        <v>0.05816972460900878</v>
+        <v>0.01793875359713453</v>
       </c>
       <c r="T10">
-        <v>0.05816972460900878</v>
+        <v>0.01470685184737122</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1086,61 +1086,185 @@
         <v>24</v>
       </c>
       <c r="B11" t="s">
+        <v>26</v>
+      </c>
+      <c r="C11" t="s">
+        <v>27</v>
+      </c>
+      <c r="D11" t="s">
+        <v>21</v>
+      </c>
+      <c r="E11">
+        <v>3</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>0.5777963333333334</v>
+      </c>
+      <c r="H11">
+        <v>1.733389</v>
+      </c>
+      <c r="I11">
+        <v>0.1253455947277287</v>
+      </c>
+      <c r="J11">
+        <v>0.1467909867357149</v>
+      </c>
+      <c r="K11">
+        <v>3</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="M11">
+        <v>4.402301</v>
+      </c>
+      <c r="N11">
+        <v>13.206903</v>
+      </c>
+      <c r="O11">
+        <v>0.8568856477477294</v>
+      </c>
+      <c r="P11">
+        <v>0.8998109340742446</v>
+      </c>
+      <c r="Q11">
+        <v>2.543633376029667</v>
+      </c>
+      <c r="R11">
+        <v>22.892700384267</v>
+      </c>
+      <c r="S11">
+        <v>0.1074068411305941</v>
+      </c>
+      <c r="T11">
+        <v>0.1320841348883437</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
         <v>25</v>
       </c>
-      <c r="C11" t="s">
+      <c r="B12" t="s">
         <v>26</v>
       </c>
-      <c r="D11" t="s">
+      <c r="C12" t="s">
+        <v>27</v>
+      </c>
+      <c r="D12" t="s">
         <v>20</v>
       </c>
-      <c r="E11">
-        <v>1</v>
-      </c>
-      <c r="F11">
-        <v>1</v>
-      </c>
-      <c r="G11">
-        <v>1.82004994828301</v>
-      </c>
-      <c r="H11">
-        <v>1.82004994828301</v>
-      </c>
-      <c r="I11">
-        <v>0.4489603778645722</v>
-      </c>
-      <c r="J11">
-        <v>0.4489603778645722</v>
-      </c>
-      <c r="K11">
-        <v>1</v>
-      </c>
-      <c r="L11">
-        <v>1</v>
-      </c>
-      <c r="M11">
-        <v>3.74333435972416</v>
-      </c>
-      <c r="N11">
-        <v>3.74333435972416</v>
-      </c>
-      <c r="O11">
-        <v>0.8704346141062909</v>
-      </c>
-      <c r="P11">
-        <v>0.8704346141062909</v>
-      </c>
-      <c r="Q11">
-        <v>6.813055507821971</v>
-      </c>
-      <c r="R11">
-        <v>6.813055507821971</v>
-      </c>
-      <c r="S11">
-        <v>0.3907906532555634</v>
-      </c>
-      <c r="T11">
-        <v>0.3907906532555634</v>
+      <c r="E12">
+        <v>2</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12">
+        <v>1.934301</v>
+      </c>
+      <c r="H12">
+        <v>3.868602</v>
+      </c>
+      <c r="I12">
+        <v>0.4196220973378282</v>
+      </c>
+      <c r="J12">
+        <v>0.327610193019432</v>
+      </c>
+      <c r="K12">
+        <v>2</v>
+      </c>
+      <c r="L12">
+        <v>1</v>
+      </c>
+      <c r="M12">
+        <v>0.7352585</v>
+      </c>
+      <c r="N12">
+        <v>1.470517</v>
+      </c>
+      <c r="O12">
+        <v>0.1431143522522708</v>
+      </c>
+      <c r="P12">
+        <v>0.1001890659257553</v>
+      </c>
+      <c r="Q12">
+        <v>1.4222112518085</v>
+      </c>
+      <c r="R12">
+        <v>5.688845007234001</v>
+      </c>
+      <c r="S12">
+        <v>0.0600539446512426</v>
+      </c>
+      <c r="T12">
+        <v>0.03282295922637331</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>25</v>
+      </c>
+      <c r="B13" t="s">
+        <v>26</v>
+      </c>
+      <c r="C13" t="s">
+        <v>27</v>
+      </c>
+      <c r="D13" t="s">
+        <v>21</v>
+      </c>
+      <c r="E13">
+        <v>2</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>1.934301</v>
+      </c>
+      <c r="H13">
+        <v>3.868602</v>
+      </c>
+      <c r="I13">
+        <v>0.4196220973378282</v>
+      </c>
+      <c r="J13">
+        <v>0.327610193019432</v>
+      </c>
+      <c r="K13">
+        <v>3</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>4.402301</v>
+      </c>
+      <c r="N13">
+        <v>13.206903</v>
+      </c>
+      <c r="O13">
+        <v>0.8568856477477294</v>
+      </c>
+      <c r="P13">
+        <v>0.8998109340742446</v>
+      </c>
+      <c r="Q13">
+        <v>8.515375226601002</v>
+      </c>
+      <c r="R13">
+        <v>51.092251359606</v>
+      </c>
+      <c r="S13">
+        <v>0.3595681526865857</v>
+      </c>
+      <c r="T13">
+        <v>0.2947872337930587</v>
       </c>
     </row>
   </sheetData>
